--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sfrp1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.015829666666666</v>
+        <v>3.295960333333333</v>
       </c>
       <c r="H2">
-        <v>9.047488999999999</v>
+        <v>9.887881</v>
       </c>
       <c r="I2">
-        <v>0.02149774561142443</v>
+        <v>0.02344673072001071</v>
       </c>
       <c r="J2">
-        <v>0.02149774561142444</v>
+        <v>0.02344673072001072</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N2">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q2">
-        <v>1.327961282399889</v>
+        <v>1.691958165394333</v>
       </c>
       <c r="R2">
-        <v>11.951651541599</v>
+        <v>15.227623488549</v>
       </c>
       <c r="S2">
-        <v>0.000556329905832118</v>
+        <v>0.0006791112104479732</v>
       </c>
       <c r="T2">
-        <v>0.0005563299058321181</v>
+        <v>0.0006791112104479732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.015829666666666</v>
+        <v>3.295960333333333</v>
       </c>
       <c r="H3">
-        <v>9.047488999999999</v>
+        <v>9.887881</v>
       </c>
       <c r="I3">
-        <v>0.02149774561142443</v>
+        <v>0.02344673072001071</v>
       </c>
       <c r="J3">
-        <v>0.02149774561142444</v>
+        <v>0.02344673072001072</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>46.952962</v>
       </c>
       <c r="O3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q3">
-        <v>47.20071191249088</v>
+        <v>51.58503342816911</v>
       </c>
       <c r="R3">
-        <v>424.8064072124179</v>
+        <v>464.265300853522</v>
       </c>
       <c r="S3">
-        <v>0.01977404609720961</v>
+        <v>0.02070498858004472</v>
       </c>
       <c r="T3">
-        <v>0.01977404609720961</v>
+        <v>0.02070498858004472</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.015829666666666</v>
+        <v>3.295960333333333</v>
       </c>
       <c r="H4">
-        <v>9.047488999999999</v>
+        <v>9.887881</v>
       </c>
       <c r="I4">
-        <v>0.02149774561142443</v>
+        <v>0.02344673072001071</v>
       </c>
       <c r="J4">
-        <v>0.02149774561142444</v>
+        <v>0.02344673072001072</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N4">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O4">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P4">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q4">
-        <v>0.004554908073222222</v>
+        <v>0.1603067213857778</v>
       </c>
       <c r="R4">
-        <v>0.040994172659</v>
+        <v>1.442760492472</v>
       </c>
       <c r="S4">
-        <v>1.908211943401073E-06</v>
+        <v>6.434325258737638E-05</v>
       </c>
       <c r="T4">
-        <v>1.908211943401073E-06</v>
+        <v>6.434325258737639E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.015829666666666</v>
+        <v>3.295960333333333</v>
       </c>
       <c r="H5">
-        <v>9.047488999999999</v>
+        <v>9.887881</v>
       </c>
       <c r="I5">
-        <v>0.02149774561142443</v>
+        <v>0.02344673072001071</v>
       </c>
       <c r="J5">
-        <v>0.02149774561142444</v>
+        <v>0.02344673072001072</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N5">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q5">
-        <v>2.757496713249666</v>
+        <v>4.942608932025334</v>
       </c>
       <c r="R5">
-        <v>24.817470419247</v>
+        <v>44.483480388228</v>
       </c>
       <c r="S5">
-        <v>0.001155212811658319</v>
+        <v>0.001983844047241199</v>
       </c>
       <c r="T5">
-        <v>0.001155212811658319</v>
+        <v>0.001983844047241199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.015829666666666</v>
+        <v>3.295960333333333</v>
       </c>
       <c r="H6">
-        <v>9.047488999999999</v>
+        <v>9.887881</v>
       </c>
       <c r="I6">
-        <v>0.02149774561142443</v>
+        <v>0.02344673072001071</v>
       </c>
       <c r="J6">
-        <v>0.02149774561142444</v>
+        <v>0.02344673072001072</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.008111666666666666</v>
+        <v>0.010918</v>
       </c>
       <c r="N6">
-        <v>0.024335</v>
+        <v>0.032754</v>
       </c>
       <c r="O6">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="P6">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="Q6">
-        <v>0.02446340497944444</v>
+        <v>0.03598529491933333</v>
       </c>
       <c r="R6">
-        <v>0.220170644815</v>
+        <v>0.323867654274</v>
       </c>
       <c r="S6">
-        <v>1.024858478098987E-05</v>
+        <v>1.44436296894493E-05</v>
       </c>
       <c r="T6">
-        <v>1.024858478098987E-05</v>
+        <v>1.44436296894493E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>410.8779520000001</v>
       </c>
       <c r="I7">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663998</v>
       </c>
       <c r="J7">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663999</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N7">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O7">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P7">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q7">
-        <v>60.30734185449246</v>
+        <v>70.30710683784534</v>
       </c>
       <c r="R7">
-        <v>542.7660766904321</v>
+        <v>632.7639615406081</v>
       </c>
       <c r="S7">
-        <v>0.02526487651376571</v>
+        <v>0.02821957741290619</v>
       </c>
       <c r="T7">
-        <v>0.02526487651376571</v>
+        <v>0.02821957741290619</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>410.8779520000001</v>
       </c>
       <c r="I8">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663998</v>
       </c>
       <c r="J8">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663999</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>46.952962</v>
       </c>
       <c r="O8">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P8">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q8">
         <v>2143.548540765981</v>
@@ -948,10 +948,10 @@
         <v>19291.93686689383</v>
       </c>
       <c r="S8">
-        <v>0.8980082278270888</v>
+        <v>0.860368698202594</v>
       </c>
       <c r="T8">
-        <v>0.8980082278270888</v>
+        <v>0.8603686982025941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>410.8779520000001</v>
       </c>
       <c r="I9">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663998</v>
       </c>
       <c r="J9">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663999</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N9">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O9">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P9">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q9">
-        <v>0.2068542222791112</v>
+        <v>6.661335970247112</v>
       </c>
       <c r="R9">
-        <v>1.861688000512</v>
+        <v>59.952023732224</v>
       </c>
       <c r="S9">
-        <v>8.66585430815747E-05</v>
+        <v>0.002673699637780826</v>
       </c>
       <c r="T9">
-        <v>8.665854308157469E-05</v>
+        <v>0.002673699637780826</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>410.8779520000001</v>
       </c>
       <c r="I10">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663998</v>
       </c>
       <c r="J10">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663999</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N10">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O10">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P10">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q10">
-        <v>125.2275191698774</v>
+        <v>205.3836444357974</v>
       </c>
       <c r="R10">
-        <v>1127.047672528896</v>
+        <v>1848.452799922176</v>
       </c>
       <c r="S10">
-        <v>0.05246223280054077</v>
+        <v>0.08243604258767427</v>
       </c>
       <c r="T10">
-        <v>0.05246223280054077</v>
+        <v>0.08243604258767429</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>410.8779520000001</v>
       </c>
       <c r="I11">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663998</v>
       </c>
       <c r="J11">
-        <v>0.976287419574543</v>
+        <v>0.9742982039663999</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.008111666666666666</v>
+        <v>0.010918</v>
       </c>
       <c r="N11">
-        <v>0.024335</v>
+        <v>0.032754</v>
       </c>
       <c r="O11">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="P11">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="Q11">
-        <v>1.110968329102222</v>
+        <v>1.495321826645333</v>
       </c>
       <c r="R11">
-        <v>9.998714961920001</v>
+        <v>13.457896439808</v>
       </c>
       <c r="S11">
-        <v>0.000465423890066237</v>
+        <v>0.0006001861254446047</v>
       </c>
       <c r="T11">
-        <v>0.000465423890066237</v>
+        <v>0.0006001861254446048</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.31071</v>
+        <v>0.1784693333333333</v>
       </c>
       <c r="H12">
-        <v>0.9321299999999999</v>
+        <v>0.535408</v>
       </c>
       <c r="I12">
-        <v>0.002214834814032607</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="J12">
-        <v>0.002214834814032608</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N12">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O12">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P12">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q12">
-        <v>0.13681503787</v>
+        <v>0.09161598298133333</v>
       </c>
       <c r="R12">
-        <v>1.23133534083</v>
+        <v>0.8245438468319999</v>
       </c>
       <c r="S12">
-        <v>5.731665383879352E-05</v>
+        <v>3.677244648914448E-05</v>
       </c>
       <c r="T12">
-        <v>5.731665383879354E-05</v>
+        <v>3.677244648914448E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.31071</v>
+        <v>0.1784693333333333</v>
       </c>
       <c r="H13">
-        <v>0.9321299999999999</v>
+        <v>0.535408</v>
       </c>
       <c r="I13">
-        <v>0.002214834814032607</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="J13">
-        <v>0.002214834814032608</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>46.952962</v>
       </c>
       <c r="O13">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P13">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q13">
-        <v>4.86291827434</v>
+        <v>2.793221275388444</v>
       </c>
       <c r="R13">
-        <v>43.76626446906</v>
+        <v>25.138991478496</v>
       </c>
       <c r="S13">
-        <v>0.002037248300450212</v>
+        <v>0.001121131668723014</v>
       </c>
       <c r="T13">
-        <v>0.002037248300450213</v>
+        <v>0.001121131668723014</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.31071</v>
+        <v>0.1784693333333333</v>
       </c>
       <c r="H14">
-        <v>0.9321299999999999</v>
+        <v>0.535408</v>
       </c>
       <c r="I14">
-        <v>0.002214834814032607</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="J14">
-        <v>0.002214834814032608</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N14">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O14">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P14">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q14">
-        <v>0.00046927567</v>
+        <v>0.008680272455111111</v>
       </c>
       <c r="R14">
-        <v>0.00422348103</v>
+        <v>0.07812245209599999</v>
       </c>
       <c r="S14">
-        <v>1.965961604156073E-07</v>
+        <v>3.484052061437836E-06</v>
       </c>
       <c r="T14">
-        <v>1.965961604156073E-07</v>
+        <v>3.484052061437836E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.31071</v>
+        <v>0.1784693333333333</v>
       </c>
       <c r="H15">
-        <v>0.9321299999999999</v>
+        <v>0.535408</v>
       </c>
       <c r="I15">
-        <v>0.002214834814032607</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="J15">
-        <v>0.002214834814032608</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N15">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O15">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P15">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q15">
-        <v>0.28409489211</v>
+        <v>0.2676318983893334</v>
       </c>
       <c r="R15">
-        <v>2.55685402899</v>
+        <v>2.408687085504</v>
       </c>
       <c r="S15">
-        <v>0.0001190173890381153</v>
+        <v>0.0001074209907709565</v>
       </c>
       <c r="T15">
-        <v>0.0001190173890381153</v>
+        <v>0.0001074209907709565</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,356 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.31071</v>
+        <v>0.1784693333333333</v>
       </c>
       <c r="H16">
-        <v>0.9321299999999999</v>
+        <v>0.535408</v>
       </c>
       <c r="I16">
-        <v>0.002214834814032607</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="J16">
-        <v>0.002214834814032608</v>
+        <v>0.001269591250272884</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.008111666666666666</v>
+        <v>0.010918</v>
       </c>
       <c r="N16">
-        <v>0.024335</v>
+        <v>0.032754</v>
       </c>
       <c r="O16">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="P16">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="Q16">
-        <v>0.00252037595</v>
+        <v>0.001948528181333333</v>
       </c>
       <c r="R16">
-        <v>0.02268338355</v>
+        <v>0.017536753632</v>
       </c>
       <c r="S16">
-        <v>1.05587454507036E-06</v>
+        <v>7.820922283316991E-07</v>
       </c>
       <c r="T16">
-        <v>1.05587454507036E-06</v>
+        <v>7.820922283316991E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1385303333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.415591</v>
+      </c>
+      <c r="I17">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="J17">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.513343</v>
+      </c>
+      <c r="N17">
+        <v>1.540029</v>
+      </c>
+      <c r="O17">
+        <v>0.02896400434489499</v>
+      </c>
+      <c r="P17">
+        <v>0.02896400434489499</v>
+      </c>
+      <c r="Q17">
+        <v>0.07111357690433334</v>
+      </c>
+      <c r="R17">
+        <v>0.6400221921389999</v>
+      </c>
+      <c r="S17">
+        <v>2.85432750516803E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.85432750516803E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1385303333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.415591</v>
+      </c>
+      <c r="I18">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="J18">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15.65098733333333</v>
+      </c>
+      <c r="N18">
+        <v>46.952962</v>
+      </c>
+      <c r="O18">
+        <v>0.8830650561604291</v>
+      </c>
+      <c r="P18">
+        <v>0.8830650561604291</v>
+      </c>
+      <c r="Q18">
+        <v>2.168136492282445</v>
+      </c>
+      <c r="R18">
+        <v>19.513228430542</v>
+      </c>
+      <c r="S18">
+        <v>0.0008702377090672274</v>
+      </c>
+      <c r="T18">
+        <v>0.0008702377090672274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1385303333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.415591</v>
+      </c>
+      <c r="I19">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="J19">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.04863733333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.145912</v>
+      </c>
+      <c r="O19">
+        <v>0.00274423131121058</v>
+      </c>
+      <c r="P19">
+        <v>0.00274423131121058</v>
+      </c>
+      <c r="Q19">
+        <v>0.006737745999111111</v>
+      </c>
+      <c r="R19">
+        <v>0.06063971399199999</v>
+      </c>
+      <c r="S19">
+        <v>2.704368780939045E-06</v>
+      </c>
+      <c r="T19">
+        <v>2.704368780939045E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1385303333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.415591</v>
+      </c>
+      <c r="I20">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="J20">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.499596</v>
+      </c>
+      <c r="N20">
+        <v>4.498788</v>
+      </c>
+      <c r="O20">
+        <v>0.08461068926543686</v>
+      </c>
+      <c r="P20">
+        <v>0.08461068926543686</v>
+      </c>
+      <c r="Q20">
+        <v>0.2077395337453334</v>
+      </c>
+      <c r="R20">
+        <v>1.869655803708</v>
+      </c>
+      <c r="S20">
+        <v>8.338163975041945E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.338163975041945E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1385303333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.415591</v>
+      </c>
+      <c r="I21">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="J21">
+        <v>0.0009854740633164956</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.010918</v>
+      </c>
+      <c r="N21">
+        <v>0.032754</v>
+      </c>
+      <c r="O21">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="P21">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="Q21">
+        <v>0.001512474179333333</v>
+      </c>
+      <c r="R21">
+        <v>0.013612267614</v>
+      </c>
+      <c r="S21">
+        <v>6.070706662294907E-07</v>
+      </c>
+      <c r="T21">
+        <v>6.070706662294907E-07</v>
       </c>
     </row>
   </sheetData>
